--- a/_RESULTS/Error_budget/error_budget_area5.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,17 +379,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VAR(OK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MSPE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nugget</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Non-expl var of model</t>
+          <t>S_nugget</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(TOTAL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(DATA)</t>
         </is>
       </c>
     </row>
@@ -404,13 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.7558876508733949</v>
+      </c>
+      <c r="E2" t="n">
         <v>7.717541070913257</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.824</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.893541070913257</v>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>1.403294474986249</v>
+      </c>
+      <c r="E3" t="n">
         <v>7.366794329745801</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.183</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.183794329745801</v>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1.699271575752888</v>
+      </c>
+      <c r="E4" t="n">
         <v>7.185622895984334</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.98</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.205622895984334</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1.791544649509852</v>
+      </c>
+      <c r="E5" t="n">
         <v>7.128884635701358</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.499</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.629884635701359</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1.868525521621687</v>
+      </c>
+      <c r="E6" t="n">
         <v>7.078916570959088</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.933</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.145916570959088</v>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.910927781629038</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.024764634751931</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.246</v>
       </c>
-      <c r="F7" t="n">
-        <v>3.778764634751931</v>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>1.9719854500803</v>
+      </c>
+      <c r="E8" t="n">
         <v>7.000916478342053</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.3266</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.674316478342053</v>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
+        <v>1.982609598970315</v>
+      </c>
+      <c r="E9" t="n">
         <v>7.008135463108034</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.4296</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.578535463108034</v>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +606,17 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
+        <v>1.987836712552757</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.014036107114384</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.5177</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.496336107114384</v>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>8.40789956002731</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area5.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area5.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7558876508733949</v>
+        <v>0.7559509484108924</v>
       </c>
       <c r="E2" t="n">
         <v>7.717541070913257</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.403294474986249</v>
+        <v>1.403372693571783</v>
       </c>
       <c r="E3" t="n">
         <v>7.366794329745801</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.699271575752888</v>
+        <v>1.699225824439933</v>
       </c>
       <c r="E4" t="n">
         <v>7.185622895984334</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.791544649509852</v>
+        <v>1.791504778259204</v>
       </c>
       <c r="E5" t="n">
         <v>7.128884635701358</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.868525521621687</v>
+        <v>1.868492041655018</v>
       </c>
       <c r="E6" t="n">
         <v>7.078916570959088</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.910927781629038</v>
+        <v>1.910892615963916</v>
       </c>
       <c r="E7" t="n">
         <v>7.024764634751931</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.9719854500803</v>
+        <v>1.971953663696472</v>
       </c>
       <c r="E8" t="n">
         <v>7.000916478342053</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.982609598970315</v>
+        <v>1.982579636221813</v>
       </c>
       <c r="E9" t="n">
         <v>7.008135463108034</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.987836712552757</v>
+        <v>1.987806058938376</v>
       </c>
       <c r="E10" t="n">
         <v>7.014036107114384</v>

--- a/_RESULTS/Error_budget/error_budget_area5.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,150 +475,6 @@
         <v>8.40789956002731</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.791504778259204</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.128884635701358</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.499</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.868492041655018</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.078916570959088</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.933</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.910892615963916</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.024764634751931</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.246</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.971953663696472</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.000916478342053</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.3266</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.982579636221813</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.008135463108034</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.4296</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.987806058938376</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.014036107114384</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.5177</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>8.40789956002731</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/_RESULTS/Error_budget/error_budget_area5.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area5.xlsx
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7559509484108924</v>
+        <v>0.44461726443181</v>
       </c>
       <c r="E2" t="n">
-        <v>7.717541070913257</v>
+        <v>4.016195582332193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.824</v>
+        <v>0.6898</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>8.40789956002731</v>
+        <v>4.16155928477495</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.403372693571783</v>
+        <v>0.6004381621718412</v>
       </c>
       <c r="E3" t="n">
-        <v>7.366794329745801</v>
+        <v>3.972329726246276</v>
       </c>
       <c r="F3" t="n">
-        <v>1.183</v>
+        <v>1.1192</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>8.40789956002731</v>
+        <v>4.16155928477495</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.699225824439933</v>
+        <v>0.7622662883774594</v>
       </c>
       <c r="E4" t="n">
-        <v>7.185622895984334</v>
+        <v>3.894095183543521</v>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.6471</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>8.40789956002731</v>
+        <v>4.16155928477495</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area5.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area5.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44461726443181</v>
+        <v>0.4447899492387833</v>
       </c>
       <c r="E2" t="n">
         <v>4.016195582332193</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6004381621718412</v>
+        <v>0.6006481010185787</v>
       </c>
       <c r="E3" t="n">
         <v>3.972329726246276</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7622662883774594</v>
+        <v>0.7625482082485235</v>
       </c>
       <c r="E4" t="n">
         <v>3.894095183543521</v>
